--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ghrl-Gpr39.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ghrl-Gpr39.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.434123</v>
+        <v>4.529578333333333</v>
       </c>
       <c r="H2">
-        <v>55.302369</v>
+        <v>13.588735</v>
       </c>
       <c r="I2">
-        <v>0.4617788569487251</v>
+        <v>0.2308013058217703</v>
       </c>
       <c r="J2">
-        <v>0.4617788569487251</v>
+        <v>0.2308013058217703</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,7 +555,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.4677689999999999</v>
+        <v>0.467769</v>
       </c>
       <c r="N2">
         <v>1.403307</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>8.622911281586999</v>
+        <v>2.118796327405</v>
       </c>
       <c r="R2">
-        <v>77.60620153428299</v>
+        <v>19.069166946645</v>
       </c>
       <c r="S2">
-        <v>0.4617788569487251</v>
+        <v>0.2308013058217703</v>
       </c>
       <c r="T2">
-        <v>0.4617788569487251</v>
+        <v>0.2308013058217703</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>20.347931</v>
       </c>
       <c r="I3">
-        <v>0.1699067234977136</v>
+        <v>0.3456045794970084</v>
       </c>
       <c r="J3">
-        <v>0.1699067234977136</v>
+        <v>0.3456045794970085</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,7 +617,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.4677689999999999</v>
+        <v>0.467769</v>
       </c>
       <c r="N3">
         <v>1.403307</v>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>3.172710445312999</v>
+        <v>3.172710445313</v>
       </c>
       <c r="R3">
         <v>28.554394007817</v>
       </c>
       <c r="S3">
-        <v>0.1699067234977136</v>
+        <v>0.3456045794970084</v>
       </c>
       <c r="T3">
-        <v>0.1699067234977136</v>
+        <v>0.3456045794970085</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.461065</v>
+        <v>2.766332333333333</v>
       </c>
       <c r="H4">
-        <v>10.383195</v>
+        <v>8.298997</v>
       </c>
       <c r="I4">
-        <v>0.08670044349412441</v>
+        <v>0.1409564131327128</v>
       </c>
       <c r="J4">
-        <v>0.0867004434941244</v>
+        <v>0.1409564131327128</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,7 +679,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.4677689999999999</v>
+        <v>0.467769</v>
       </c>
       <c r="N4">
         <v>1.403307</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.618978913984999</v>
+        <v>1.294004509231</v>
       </c>
       <c r="R4">
-        <v>14.570810225865</v>
+        <v>11.646040583079</v>
       </c>
       <c r="S4">
-        <v>0.08670044349412441</v>
+        <v>0.1409564131327128</v>
       </c>
       <c r="T4">
-        <v>0.0867004434941244</v>
+        <v>0.1409564131327128</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.24197566666667</v>
+        <v>5.546890666666666</v>
       </c>
       <c r="H5">
-        <v>33.72592700000001</v>
+        <v>16.640672</v>
       </c>
       <c r="I5">
-        <v>0.2816139760594369</v>
+        <v>0.2826377015485084</v>
       </c>
       <c r="J5">
-        <v>0.2816139760594369</v>
+        <v>0.2826377015485084</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,7 +741,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.4677689999999999</v>
+        <v>0.467769</v>
       </c>
       <c r="N5">
         <v>1.403307</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>5.258647715621001</v>
+        <v>2.594663500256</v>
       </c>
       <c r="R5">
-        <v>47.32782944058901</v>
+        <v>23.351971502304</v>
       </c>
       <c r="S5">
-        <v>0.2816139760594369</v>
+        <v>0.2826377015485084</v>
       </c>
       <c r="T5">
-        <v>0.2816139760594369</v>
+        <v>0.2826377015485084</v>
       </c>
     </row>
   </sheetData>
